--- a/data/電池中國.xlsx
+++ b/data/電池中國.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7980" uniqueCount="4260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8189" uniqueCount="4377">
   <si>
     <t>﻿標題</t>
   </si>
@@ -20102,6 +20102,822 @@
 歐洲的政策變化可能影響市場發展。
 </t>
   </si>
+  <si>
+    <t>比亞迪外包商金匠駁斥「奴役勞工」指控</t>
+  </si>
+  <si>
+    <t>https://www.dw.com/zh-hant/%E6%AF%94%E4%BA%9E%E8%BF%AA%E5%A4%96%E5%8C%85%E5%95%86%E9%87%91%E5%8C%A0%E9%A7%81%E6%96%A5%E5%A5%B4%E5%BD%B9%E5%8B%9E%E5%B7%A5%E6%8C%87%E6%8E%A7/a-71164219</t>
+  </si>
+  <si>
+    <t>DW中國車企比亞迪巴西工廠承包商金匠集團本周四表示，巴西當局將中國員工描述為「被奴役」與事實不符，並指存在翻譯誤解以及誘導性問詢。18 小時前</t>
+  </si>
+  <si>
+    <t>.比亞迪外包商金匠駁斥「奴役勞工」指控
+中國車企比亞迪巴西工廠承包商金匠集團本周四表示，巴西當局將中國員工描述為「被奴役」與事實不符，並指存在翻譯誤解以及誘導性問詢。
+（德國之聲中文網）巴西勞工部門本周三（12月25日）表示，比亞迪在巴伊亞州的工廠工地上，163名中國工人遭遇「奴役式用工」。比亞迪隨後發表聲明稱已終止與雇傭這些工人的分包商合作，並正在配合相關部門對此事進行調查。 
+金匠微博發聲駁斥「奴役」指控
+本周四（12月26日），金匠集團巴西分公司在其官方微博賬戶上發帖表示：「…近期遭到巴西當地勞工部門頻繁密集檢查。因文化差異，其誘導性的問詢加上語言翻譯理解的偏差，勞工部門新聞發布的訊息很多表達不準確，尤其是表述金匠的員工被『奴役』，被『解救』，與事實完全不符，我們的員工希望自己站出來講出真實的情況，並願意接受任何媒體的採訪和詢問。」
+「工人聯名信」
+在這篇帖文下，金匠集團還發布了一段影片，影片中一大群中國工人坐在椅子上面對鏡頭，最前面兩名工人站立，手裡拿著稿子，對著鏡頭宣讀了一封據稱是由工人聯合簽署的「員工聲明」信件。
+信件以第一人稱講述，稱自己是「金匠公司的中國籍員工…遵紀守法，努力工作，」並表示：「給扣上了『奴隸』的帽子，讓我們感覺人格收到了侮辱，人權受到了侵犯。」
+比亞迪巴西外包施工企業被指奴役超百名中國工人
+針對此前巴西勞工部檢察員表示的「工人護照被扣押」一事，信中解釋說107名工人上交護照是為了金匠為其統一辦理臨時身份作證，公司代為收集保管。勞工部門發現櫃子裡護照「誤以為統一沒收…限制人身自由，被非法奴役。」
+在提到勞工部門要強制金匠公司與其解除合同，並將其遣返回國時，工人表示「萬分震驚，無法理解，嚴重屈辱了尊嚴。」並在信件最末表示「熱愛金匠公司，珍惜工作，願意繼續留在巴西。」
+金匠集團將信件以及員工簽名蓋手印等頁均上傳了微博。
+微博網友評論不一，有稱「西方蓄意抹黑」，即被網友回復「什麼時候巴西也是西方了」。網友「Moche70434」問「沒問題，比亞迪能跟你解除合同？」網友「Valen_zhow」回復「『文化差異』，是996文化嘛」，另有網友呼籲拍員工讀稿件影片不如直接上工作環境影片更有說服力。</t>
+  </si>
+  <si>
+    <t>2024-12-27 18:28:46</t>
+  </si>
+  <si>
+    <t>巴西勞工部門指控比亞迪巴西工廠承包商金匠集團「奴役」163名中國籍員工，比亞迪已終止與金匠集團的合作。金匠集團駁斥該指控，聲稱存在翻譯誤解和誘導性問詢，並發布了一段影片，內容為中國籍員工宣讀的聲明，否認被奴役，並表示願繼續留在巴西工作。金匠集團解釋了護照保管的原因，並對勞工部門強制解除合約的決定表示震驚。</t>
+  </si>
+  <si>
+    <t>巴西勞工部門指控比亞迪巴西工廠承包商金匠集團「奴役」163名中國工人，比亞迪已終止合作。金匠集團駁斥指控，稱存在翻譯誤解和誘導性問詢，並發布員工聲明否認被奴役，解釋護照保管原因，對勞工部門強制解除合約的決定表示震驚。「給扣上了『奴隸』的帽子，讓我們感覺人格收到了侮辱，人權受到了侵犯。」「107名工人上交護照是為了金匠為其統一辦理臨時身份作證，公司代為收集保管。」「熱愛金匠公司，珍惜工作，願意繼續留在巴西。」</t>
+  </si>
+  <si>
+    <t>比亞迪、金匠集團、巴西、中國工人、奴役、勞工部門、翻譯誤解、誘導性問詢、護照保管、員工聲明、合約終止、文化差異</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金匠集團迅速回應指控，積極澄清事實。
+提供了員工聯合簽署的聲明作為證據。
+解釋了護照保管的原因，並非強行扣押。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">員工宣讀聲明的影片形式，缺乏說服力，容易讓人質疑真實性。
+僅靠員工聲明和公司回應，難以完全消除外界疑慮。
+事件缺乏第三方獨立調查結果，難以客觀判斷事實真相。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">若能提供更多證據，例如工作環境影片、薪資證明等，可更有效地澄清事實。
+可以接受媒體採訪，公開透明地回應社會關切。
+積極配合相關部門調查，力求真相大白。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">負面輿論持續發酵，損害比亞迪和金匠集團的品牌形象。
+巴西政府可能採取更嚴厲的處罰措施。
+事件可能影響比亞迪在巴西的業務發展。
+</t>
+  </si>
+  <si>
+    <t>強化安全性與效率 CATL推出新型電動車底盤</t>
+  </si>
+  <si>
+    <t>https://www.carture.com.tw/opinion/article/34440-%E5%BC%B7%E5%8C%96%E5%AE%89%E5%85%A8%E6%80%A7%E8%88%87%E6%95%88%E7%8E%87-CATL%E6%8E%A8%E5%87%BA%E6%96%B0%E5%9E%8B%E9%9B%BB%E5%8B%95%E8%BB%8A%E5%BA%95%E7%9B%A4</t>
+  </si>
+  <si>
+    <t>CARTURE 車勢文化電動車技術不斷進步，而安全性一直是業界的重要課題之一，近日中國電池巨頭寧德時代CATL推出了一款全新的「磐石底盤」電動車平台，展示了在高強度碰撞下保持電池安全的...16 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+首頁»車事»強化安全性與效率　CATL推出新型電動車底盤
+車事
+Dec 27, 2024
+強化安全性與效率　CATL推出新型電動車底盤
+電動車技術不斷進步，而安全性一直是業界的重要課題之一，近日中國電池巨頭寧德時代CATL推出了一款全新的「磐石底盤」電動車平台，展示了在高強度碰撞下保持電池安全的最新成果，這款底盤經過多項苛刻的測試，能夠在120km/h的碰撞中保持完整，並防止起火或爆炸，樹立了未來電動車安全的新標準。
+BY Yueh Wu
+電動車電池巨頭寧德時代推出新的電動車底盤，重點在於其電池安全性極高。
+電動車電池巨頭寧德時代推出新的電動車底盤，重點在於其電池安全性極高。
+中國電池製造巨頭CATL寧德時代推出了一款名為「磐石底盤」的新型電動車平台，專注於提升電動車電池的安全性與結構強度，這款底盤經過測試，能夠在時速120 km/h的正面撞擊下保持電池的完整性，避免起火或爆炸，CATL利用潛艇級熱成型鋼、航太級鋁合金和多重隔離結構，賦予底盤優異的剛性表現，電池還配備了一種3D仿生龜殼結構和高延展性吸收絕緣膜，能夠吸收85%的碰撞能量，比傳統底盤的60%吸能效率高出許多。
+磐石底盤的一大技術亮點是電池的快速安全反應機制，在發生碰撞後，電池的高壓迴路能在0.01秒內斷開，並在0.2秒內完成放電，確保安全性，模組化設計讓該底盤能適應多種車型需求，並支持L3和L4級自動駕駛技術，且這款底盤可以顯著縮短新車型的研發週期，從傳統的36個月減少至12至18個月。原廠也同時宣布，Avatr阿維塔將成為首個採用這款底盤技術的汽車品牌，儘管具體上市時間尚未公佈，但這項創新底盤的推出，不僅提升了電動車的安全性能，還可能對行業標準產生深遠影響。
+磐石底盤著重於安全性，將比現有的電動車平台都還要更加安全。
+磐石底盤著重於安全性，將比現有的電動車平台都還要更加安全。
+這個底盤可以在時速120 km/h發生碰撞時，依舊不起火不爆炸。
+這個底盤可以在時速120 km/h發生碰撞時，依舊不起火不爆炸。
+目前首先搭載這個底盤的品牌將會是阿維塔。
+目前首先搭載這個底盤的品牌將會是阿維塔。
+電動車平台底盤電池模組化寧德時代CATL阿維塔Avtar
+相關文章
+回到未來經典車款重現 Lynx DeLorean DMC-EV一輛要價超過800萬
+寧德時代、比亞迪、蔚來、中航等中國品牌共同建立中國固態電池供應鏈
+是什麼原因讓Audi與上汽合作的新款電動車放棄四環Logo？
+雷諾將使用LFP電池 來自寧德時代以及LG讓成本下降20%
+擊敗Model 3的中國電動轎車的新勢力 Avatr 06亮相
+精選文章
+強化安全性與效率　CATL推出新型電動車底盤
+Mugen推出全新Honda Civic Type R Group B改裝套件
+科幻黑武士，Toyota東京改裝車展將展出RAV4 Dark Side Performance
+中國市場專屬運動版車型 Toyota Camry Glorious Edition
+突破傳統的增程電動車 零跑汽車C10 REEV亮相
+© 2024 CARTURE 車勢文化. All rights reserved.</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:45:33</t>
+  </si>
+  <si>
+    <t>中國電池巨頭寧德時代(CATL)推出新型電動車底盤「磐石底盤」，主打高安全性與效率。該底盤採用潛艇級熱成型鋼、航太級鋁合金和多重隔離結構，以及3D仿生龜殼結構和高延展性吸收絕緣膜，能在120km/h的碰撞中保持電池完整性，防止起火或爆炸，吸能效率高達85%。此外，其快速安全反應機制可在0.01秒內斷開高壓迴路，0.2秒內完成放電。磐石底盤採用模組化設計，適用於多種車型，支援L3和L4級自動駕駛，並能將新車型研發週期縮短至12至18個月。阿維塔將成為首個採用該底盤的汽車品牌。</t>
+  </si>
+  <si>
+    <t>中國電池巨頭寧德時代CATL推出全新的「磐石底盤」電動車平台，在120km/h的碰撞中保持完整，並防止起火或爆炸。「磐石底盤」利用潛艇級熱成型鋼、航太級鋁合金和多重隔離結構，電池配備3D仿生龜殼結構和高延展性吸收絕緣膜，吸收85%的碰撞能量。電池的高壓迴路能在0.01秒內斷開，0.2秒內完成放電。模組化設計能適應多種車型，並支持L3和L4級自動駕駛，能將新車型研發週期縮短至12至18個月。阿維塔將成為首個採用此底盤的汽車品牌。</t>
+  </si>
+  <si>
+    <t>寧德時代、CATL、磐石底盤、電動車底盤、電動車安全、電池安全、碰撞測試、120km/h碰撞、潛艇級熱成型鋼、航太級鋁合金、3D仿生龜殼結構、高延展性吸收絕緣膜、快速安全反應機制、模組化設計、L3自動駕駛、L4自動駕駛、阿維塔、Avatr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">極高的安全性：在120km/h高速碰撞下仍能保證電池完整性，防止起火爆炸，吸能效率高達85%。
+快速的安全反應機制：能在極短時間內切斷電源，確保安全。
+模組化設計：適用於多種車型，提高生產效率。
+縮短研發週期：將新車型研發時間縮短至12-18個月。
+技術領先：採用先進材料和技術，提升電動車安全性和效率。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成本可能較高：採用高強度材料和先進技術，生產成本可能較高。
+市場接受度：新技術的市場接受度需要時間驗證。
+兼容性：需要與不同的車型和自動駕駛系統進行兼容性測試。
+長期可靠性：新技術的長期可靠性需要長期使用和測試才能驗證。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提升電動車安全性：解決電動車安全隱患，提升消費者信心。
+拓展市場份額：成為電動車底盤行業的領軍者。
+合作機會：與其他汽車製造商合作，共同開發新車型。
+技術授權：將技術授權給其他企業，獲得額外收入。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">競爭對手：其他電池廠商或汽車製造商推出競爭產品。
+技術瓶頸：技術發展遇到瓶頸，難以持續創新。
+政策風險：相關政策的變化可能影響產品的市場銷售。
+原材料價格波動：原材料價格上漲可能增加生產成本。
+</t>
+  </si>
+  <si>
+    <t>中國串聯太陽能電池技術突破光電轉化效率達25.7% 開啟清潔能源新時代| 世界新鮮事</t>
+  </si>
+  <si>
+    <t>https://vocus.cc/article/676e95fdfd89780001427481</t>
+  </si>
+  <si>
+    <t>Vocus中國科學院與波茨坦大學合作開發新型串聯太陽能電池，光電轉化效率達25.7%，突破技術瓶頸，為清潔能源應用開辟新前景，並推動全球能源轉型。 太陽能, 清潔能源, 科技突破,...16 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+世界新鮮事
+首頁
+關於
+中國串聯太陽能電池技術突破 光電轉化效率達25.7% 開啟清潔能源新時代
+世界焦點-avatar-img
+世界焦點
+更新於 2024/12/27
+發佈於 2024/12/27
+閱讀時間約 4 分鐘
+近日，中國在太陽能電池技術領域取得重大突破，串聯太陽能電池的光電轉化效率達到25.7%，這一成就由中國科學院研究團隊與德國波茨坦大學科學家共同開發，並發表於國際頂尖期刊《自然》。這項技術不僅提升了太陽能電池的效率，更為全球清潔能源的應用開辟了新的可能性。
+技術突破：結合過氧化物與有機吸收劑
+研究團隊將過氧化物太陽能電池與新型有機吸收劑結合，創造出一種新型串聯太陽能電池結構。這種設計不僅提高了光電轉化效率，還改善了電池的性能和穩定性。特別值得一提的是，團隊成功實現了1.36V的開路電壓，這對提升鈣鈦礦/有機疊層太陽能電池的效率至關重要。
+過氧化物太陽能電池利用鈣鈦礦材料作為吸收層，具有製造成本低、可調整帶隙等優勢；而有機吸收劑則具有良好的光吸收能力和靈活性。兩者的結合使得串聯太陽能電池能夠更高效地吸收不同波長的光，從而大幅提升整體效率。
+國際合作：中德科研團隊攜手攻關
+這項突破性成果的背後，是中國科學院與波茨坦大學的緊密合作。中國科學院的孟雷教授和李永芳教授在鈣鈦礦與有機太陽能電池領域具有豐富的研究經驗，而波茨坦大學的Felix Lang博士則專注於新型光伏材料的開發。雙方共同克服了材料結合與缺陷控制等技術難題，最終實現了這一創紀錄的效率。
+Felix Lang博士表示：「只有將兩項重大突破結合起來，才有可能實現這一創紀錄的25.7%的效率。」這一合作不僅展示了國際科研協作的力量，也為未來更多跨國合作提供了範本。
+商業化前景：市場潛力巨大
+這項技術的突破為串聯太陽能電池的商業化鋪平了道路。根據市場研究，全球太陽能市場預計到2030年將達到約3000億美元的規模。串聯太陽能電池因其高效率、低成本的特性，有望在多個領域得到廣泛應用，包括便攜式能源、建築光伏一體化、交通工具及可穿戴設備等。
+此外，由於鈣鈦礦材料的低製造成本和簡化生產流程，串聯太陽能電池的生產成本預計將低於傳統矽基太陽能電池。這使得其在未來大規模應用中更具競爭力，並有助於推動全球能源轉型。
+環境與社會效益：助力全球氣候目標
+這項技術的突破對環境和社會也將產生深遠影響。首先，高效率的太陽能電池能夠減少對化石燃料的依賴，從而降低碳排放。其次，隨著技術的商業化，預計將創造大量就業機會，並促進相關產業的發展。
+更重要的是，這項技術有助於各國實現《巴黎協定》中的減排目標，加速全球向低碳經濟轉型。中國政府近年來大力支持清潔能源發展，並設定了2030年碳排放達峰、2060年實現碳中和的目標。串聯太陽能電池技術的突破，正是中國能源戰略的重要一環。
+未來挑戰與研究方向
+儘管這項技術取得了顯著進展，但在商業化過程中仍面臨一些挑戰，包括電池的穩定性、大規模生產的可行性以及材料缺陷的控制等。未來的研究將集中在進一步提升效率、降低生產成本以及擴大應用範圍等方面，以推動這項技術的商業化進程。
+結論
+中國在串聯太陽能電池技術上的突破，不僅提升了光電轉化效率，也為全球清潔能源的發展提供了新的解決方案。隨著技術的不斷成熟和商業化步伐的加快，這項技術有望在多個領域發揮重要作用，推動全球向可再生能源轉型，為實現可持續發展目標貢獻力量。
+#太陽能
+#清潔能源
+#科技突破
+#國際合作
+#鈣鈦礦
+#光電轉化
+#能源轉型
+#商業化
+#中國科學院
+#波茨坦大學
+#光電
+#能源
+#成本
+#清潔
+#有機
+#商業
+#電池
+avatar-img
+世界新鮮事
+8
+會員
+521
+內容數
+世界新鮮事
+加入
+前往沙龍
+留言0
+查看全部
+avatar-img
+發表第一個留言支持創作者！
+世界新鮮事 的其他內容
+螢幕保護程式：從實用工具到趣味裝飾的轉變
+文章探討螢幕保護程式從防止顯示器烙印的實用工具，轉變為現代趣味裝飾的歷程，分析其技術背景、現代用途、優缺點及未來發展，反映顯示技術進步與使用者需求的變化。
+#螢幕保護程式
+#顯示技術
+#科技演變
+微軟與OpenAI重新定義通用人工智慧（AGI），瞄準千億美元經濟價值
+微軟與OpenAI重新定義通用人工智慧（AGI），強調其經濟價值，預計創造千億美元利潤。文章探討AGI的技術、商業應用及國際競爭，並分析其對全球經濟的潛在影響與挑戰。
+#人工智慧
+#AGI
+#微軟
+抵禦量子電腦威脅：零知識證明成區塊鏈護盾
+本文探討零知識證明（ZKP）在區塊鏈中的重要性，特別是其抵禦量子電腦威脅的能力。文章介紹ZKP的基本概念、抗量子特性及廣泛應用場景，並分析其未來發展與挑戰。
+#區塊鏈
+#零知識證明
+#量子電腦
+馬斯克與阿特曼的AI理念分歧：從OpenAI到友誼破裂
+本文探討了伊隆·馬斯克與薩姆·阿特曼在AI發展理念上的分歧，以及他們因OpenAI商業化而破裂的友誼。文章分析了兩人對AI風險與未來的不同看法，並探討了這一事件對OpenAI及AI行業的深遠影響。
+#人工智慧
+#OpenAI
+#伊隆·馬斯克
+全球學生學習能力下降，OECD研究揭示智力發展挑戰
+OECD最新報告指出，全球學生在數學與閱讀能力上顯著下降，尤其是2022年PISA評比顯示15歲學生能力為2000年以來最低。疫情、教育系統適應性及數位環境影響是主要原因。部分亞洲國家表現優異，顯示教育系統的靈活性與質量至關重要。未來需改革教育體系，加強個性化學習與心理健康支持。
+#教育
+#學習能力
+#PISA
+蘋果M4 Mac mini：卓越性能與環保設計的完美結合
+蘋果的M4 Mac mini搭載全新M4處理器，性能提升顯著，尤其在多核處理和遊戲性能方面表現優越。其小巧設計與環保特性也獲得好評，並成功吸引專業與日常消費者，成為市場上的強勁競爭者。
+#蘋果
+#桌面電腦
+#處理器
+你可能也想看
+Google News 追蹤
+avatar-avatar
+方格子 vocus 官方沙龍
+2024/11/27
+Thumbnail
+🔔 叮咚～時代的眼淚：投稿懷舊主題，vocus 送你經典「偉士牌樂高」！
+徵的就是你 🫵 超ㄅㄧㄤˋ 獎品搭配超瞎趴的四大主題，等你踹共啦！還有機會獲得經典的「偉士牌樂高」喔！馬上來參加本次的活動吧！
+#時代的眼淚
+#懷舊追星
+#懷舊ACG
+avatar-avatar
+理財人妻Vivi
+2024/12/25
+Thumbnail
+為什麼選擇美股？從入門策略到如何突破理財門檻 with 國泰世華CUBE App
+隨著理財資訊的普及，越來越多台灣人不再將資產侷限於台股，而是將視野拓展到國際市場。特別是美國市場，其豐富的理財選擇，讓不少人開始思考將資金配置於海外市場的可能性。 然而，要參與美國市場並不只是盲目跟隨標的這麼簡單，而是需要策略和方式，尤其對新手而言，除了選股以外還會遇到語言、開戶流程、Ap
+#美股小白
+#國泰世華銀行
+#國泰世華
+avatar-avatar
+唐志偉的沙龍
+2024/06/25
+綠電革命：太陽光電如何改變我們的未來？
+隨著全球對環保意識的提升，綠電成為了未來能源發展的主要方向。而在眾多綠電形式中，太陽光電因其清潔、可再生且成本逐漸降低的特點，成為了各國積極推動的重點項目。本文將帶你了解太陽光電的發展現狀、優勢以及面臨的挑戰，並分析它如何改變我們的未來。
+avatar-avatar
+Allen Liu的沙龍
+2024/05/27
+太陽能
+ocs.google.com/spreadsheets/d/1iOhu1G6N6vkBraffOXhnGPuPsSVU73PGaLzUDME2kh8/edit#gid=428533053 聯合再生2022年海外營收比重一度站上5成，2023年全球太陽能供過於求嚴重、庫存高築，造成海外市場也不理想，
+avatar-avatar
+唐志偉的沙龍
+2024/05/14
+太陽能屋頂：未來綠能發展的新趨勢
+隨著全球環保意識的提升以及可再生能源技術的進步，太陽能屋頂成為一種廣受關注的綠能解決方案。在這個過程中，「種電」這個關鍵字越來越多地出現在我們的日常生活中。所謂「種電」，即是在屋頂上安裝太陽能板，通過光伏技術將陽光轉化為電能。這種技術不僅能夠減少碳排放，還能為家庭和企業提供穩定的電力來源。本文將深入
+avatar-avatar
+唐志偉的沙龍
+2024/04/30
+革命太陽能源：向著能源自給自足的未來邁進！
+在當今這個充滿挑戰的時代，能源自給自足成為了一個關鍵的目標，而太陽能技術的迅速發展正在為我們實現這一目標打開大門。太陽能的革命不僅僅是關於轉向更清潔的能源，更是關於讓個人和社區在能源生產上實現更大的自主性和可持續性。
+avatar-avatar
+唐志偉的沙龍
+2024/04/18
+擁抱未來：太陽能投資的無限可能性，為地球注入活力
+太陽能作為一種潔淨、可再生的能源，近年來越來越受到全球範圍內投資者的青睞。隨著技術進步和成本降低，太陽能產業不僅已成為可持續發展的重要支柱，也在重新定義我們對能源投資的概念。在這篇文章中，我們將揭開太陽能投資的神秘面紗，探索其對未來的影響，以及如何為地球帶來永續發展。
+avatar-avatar
+Yuwei Cheng的沙龍
+2024/01/28
+Thumbnail
+太陽光電池　斎藤勝裕
+太陽能電池的原料是硅（矽）。硅是一種相對便宜且取之於土壤中的沙子和岩石等原材料，因此相當豐富。然而，太陽能電池需要高純度的硅，這就需要龐大的電力和設備完善的工廠，因此成本相對較高且不可估量。因此，一些不使用硅的化合物太陽能電池和有機太陽能電池等技術正在不斷發展。雖然這些新技術的原料成本較高，轉換效率
+#太陽能板回收
+#太陽光発電
+#太陽電池斎藤勝裕
+avatar-avatar
+Yuwei Cheng的沙龍
+2024/01/24
+Thumbnail
+太陽能模組廢棄物 12之2032年問題
+併網型太陽光電發電系統是指太陽能發電系統與電網相連，將所產生的太陽能電力輸送到電網中。這樣的系統通常包括太陽能電池板、逆變器、連接線和計量裝置等組件。太陽能電池板將太陽能轉換為直流電，逆變器將直流電轉換為交流電，然後輸送到電網中。
+avatar-avatar
+Yuwei Cheng的沙龍
+2024/01/23
+Thumbnail
+太陽能模組廢棄物 11之2032年問題
+太陽電池晶體市場的規模被估計為2022年的46億美元，預測從2023年到2032年的年平均增長率為12.8％，預計到2032年將達到142億美元。在全球轉向可持續能源的過程中，太陽電池市場正在經歷革命性的急速增長。太陽電池，也被稱為光電池，作為先進技術，正在崛起，以減少溫室氣體排放、應對氣候變化，確
+#太陽能板回收
+avatar-avatar
+Yuwei Cheng的沙龍
+2024/01/09
+Thumbnail
+太陽光發電 aka 太陽能 5 有關回收
+將太陽能電池板視為再生資源進行回收有著眾多優點。 1. **近乎100%的可回收性：** 透過將太陽光電池板分解成各種材料並進行再利用，太陽能電池板可以實現近乎100%的回收率。這種流程包括將廢棄的電池板進行材料分類和精製，使其再次能夠以材料的形式進入市場。
+#太陽光発電
+#太陽光発電所
+#太陽光パネル
+avatar-avatar
+Yuwei Cheng的沙龍
+2024/01/06
+Thumbnail
+太陽光發電 aka 太陽能 2
+太陽能發電作為全球推廣的可再生能源，其優點不僅在於利用無窮盡的太陽能。當太陽能電池板達到壽命時，其處理和回收方式成為一個重大問題。這是因為太陽能電池板大量生產和安裝，但在其壽命結束時的適當處理和回收方面尚未充分建立。本文將探討太陽能電池板的廢棄和回收現狀、挑戰，以及未來的展望。
+#太陽能板回收
+#太陽光発電
+#太陽光発電所</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:45:59</t>
+  </si>
+  <si>
+    <t>中國科學院研究團隊與德國波茨坦大學科學家合作，研發出一種串聯太陽能電池，其光電轉化效率達到25.7%，此成果已發表在《自然》期刊。該技術結合過氧化物太陽能電池與新型有機吸收劑，提升了光電轉化效率、性能和穩定性，並實現了1.36V的開路電壓。此突破為串聯太陽能電池的商業化鋪路，預計將在便攜式能源、建築光伏一體化等領域廣泛應用，並有助於降低碳排放，促進全球能源轉型。</t>
+  </si>
+  <si>
+    <t>中國在太陽能電池技術領域取得重大突破，串聯太陽能電池的光電轉化效率達到25.7%。研究團隊將過氧化物太陽能電池與新型有機吸收劑結合，提高了光電轉化效率和穩定性，並實現了1.36V的開路電壓。「只有將兩項重大突破結合起來，才有可能實現這一創紀錄的25.7%的效率。」這項技術有望在多個領域得到廣泛應用，並有助於推動全球能源轉型。</t>
+  </si>
+  <si>
+    <t>串聯太陽能電池,光電轉化效率,25.7%,過氧化物太陽能電池,有機吸收劑,鈣鈦礦,開路電壓,中國科學院,德國波茨坦大學,清潔能源,能源轉型,商業化,《自然》期刊,低碳經濟,巴黎協定,太陽能市場</t>
+  </si>
+  <si>
+    <t xml:space="preserve">高效率:光電轉化效率達到25.7%，創下新紀錄。
+低成本潛力:使用鈣鈦礦材料，製造成本較低。
+國際合作:中德合作，展現科研實力。
+廣泛應用:適用於多個領域，市場潛力巨大。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">商業化挑戰:電池穩定性、大規模生產可行性及材料缺陷控制等問題仍待解決。
+技術成熟度:仍需進一步提升效率、降低成本。
+市場競爭:需面對其他太陽能技術的競爭。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">龐大市場需求:全球太陽能市場規模龐大，發展前景良好。
+政府政策支持:各國積極推動清潔能源發展，政策利好。
+技術革新:持續研發，提升技術水平，擴大應用範圍。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">技術瓶頸:無法克服穩定性及大規模生產等問題，將影響商業化進程。
+政策風險:政府政策變化可能影響產業發展。
+競爭加劇:其他太陽能技術的發展，可能削弱其競爭優勢。
+</t>
+  </si>
+  <si>
+    <t>All In民族產業？陸「舉國體制」下的供應鏈悲歌</t>
+  </si>
+  <si>
+    <t>https://www.wealth.com.tw/articles/14bc58c1-1b1d-4ff8-b205-bb4f2be35540</t>
+  </si>
+  <si>
+    <t>財訊近年來，太陽能、電池、電動車等產品在中國「舉國體制」的加持下，出海大殺四方，重塑全球市場競爭格局。「民族產業」的崛起讓中國官方藉此宣揚制度優越性，惟「舉國體制」...21 小時前</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:46:25</t>
+  </si>
+  <si>
+    <t>中國明年元旦起　調整部分商品關稅稅率 | on.cc 東網 | LINE TODAY</t>
+  </si>
+  <si>
+    <t>https://today.line.me/hk/v2/article/2Dnl8RN</t>
+  </si>
+  <si>
+    <t>LINE TODAY國務院關稅稅則委員會周六（28日）公布，明年1月1日起將調整部分商品的進口關稅稅率和稅目，對935項商品實施低於最惠國稅率的進口暫定稅率。 ...3 小時前</t>
+  </si>
+  <si>
+    <t>.啟用Javascript
+新聞
+中國明年元旦起　調整部分商品關稅稅率
+on.cc 東網
+國務院關稅稅則委員會周六（28日）公布，明年1月1日起將調整部分商品的進口關稅稅率和稅目，對935項商品實施低於最惠國稅率的進口暫定稅率。
+降低進口關稅商品包括環烯烴聚合物、乙烯-乙烯醇共聚物、消防車和搶修車等特殊用途車輛的自動變速箱等；環硅酸鋯鈉、CAR-T腫瘤療法用的病毒載體、外科植入用鎳鈦合金絲等。乙烷、部分再生銅鋁原料。根據國內產業發展和供需情況變化，提高糖漿和含糖預混粉、氯乙烯、電池隔膜等部分商品的進口關稅。中國將繼續給予43個不發達建交國100%稅目產品零關稅待遇，並對原產於孟加拉、老撾、柬埔寨、緬甸部分進口貨物實施特惠稅率。
+為擴大面向全球的高標準自由貿易區網絡，中國明年對24個自由貿易協定和優惠貿易安排下、原產於34個國家或地區的部分進口商品實施協定稅率。其中，中國與馬爾代夫自由貿易協定自明年1月1日起生效並實施降稅，未來完成最終降稅後，雙方接近96%的稅目將實現零關稅。
+東網網站 : https://on.cc/東網Facebook專頁 : https://www.facebook.com/onccnews/</t>
+  </si>
+  <si>
+    <t>2024-12-28 17:14:49</t>
+  </si>
+  <si>
+    <t>中國國務院關稅稅則委員會宣布，將於2024年1月1日起調整部分商品的進口關稅稅率。其中，935項商品將實施低於最惠國稅率的進口暫定稅率，包括環烯烴聚合物、乙烯-乙烯醇共聚物、特殊用途車輛的自動變速箱、環硅酸鋯鈉、CAR-T腫瘤療法用的病毒載體等。同時，為配合國內產業發展和供需變化，糖漿、含糖預混粉、氯乙烯、電池隔膜等部分商品的進口關稅將提高。此外，中國將繼續給予部分不發達國家零關稅待遇，並與更多國家或地區實施協定稅率，例如與馬爾代夫自由貿易協定將於明年1月1日起生效。</t>
+  </si>
+  <si>
+    <t>中國明年元旦起調整部分商品關稅稅率，935項商品實施低於最惠國稅率的進口暫定稅率，包括環烯烴聚合物、乙烯-乙烯醇共聚物、特殊用途車輛自動變速箱等；同時，糖漿和含糖預混粉、氯乙烯、電池隔膜等部分商品進口關稅將提高。中國將繼續給予43個不發達建交國100%稅目產品零關稅待遇，並對原產於孟加拉、老撾、柬埔寨、緬甸部分進口貨物實施特惠稅率。中國與馬爾代夫自由貿易協定自明年1月1日起生效並實施降稅，未來完成最終降稅後，雙方接近96%的稅目將實現零關稅。</t>
+  </si>
+  <si>
+    <t>中國、關稅、稅率、進口、出口、商品、最惠國稅率、自由貿易協定、馬爾代夫、環烯烴聚合物、乙烯-乙烯醇共聚物、糖漿、電池隔膜、氯乙烯、零關稅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">促進特定產業發展：降低部分商品關稅，有助於引進先進技術和設備，促進相關產業發展，例如醫療器材和新能源產業。
+擴大貿易網絡：與馬爾代夫等國簽訂自由貿易協定，擴大中國的貿易網絡，增加貿易機會。
+調整國內供需：提高部分商品關稅，可以保護國內產業，調整國內供需平衡。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可能導致物價上漲：提高部分商品關稅可能導致這些商品的國內價格上漲，增加消費者負擔。
+影響國際貿易關係：關稅調整可能影響與其他國家的貿易關係，引發貿易摩擦。
+預測難度：關稅調整的實際效果取決於多種因素，難以準確預測。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吸引外國投資：降低關稅可以吸引外國企業來華投資，促進經濟發展。
+提升國際競爭力：促進相關產業發展，提升中國在國際市場的競爭力。
+深化國際合作：與更多國家簽訂自由貿易協定，深化國際合作，促進共同發展。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全球經濟下行：全球經濟下行可能影響進出口貿易，降低關稅調整的積極效果。
+地區貿易衝突：地區貿易衝突可能影響中國與其他國家的貿易關係。
+保護主義抬頭：國際貿易保護主義抬頭，可能影響中國的貿易政策和國際合作。
+</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>中國下周三起調低再生銅鋁原料等商品進口關稅 推進綠色低碳發展</t>
+  </si>
+  <si>
+    <t>https://news.tvb.com/tc/greaterchina/676f6d6ddb2fdd2664fc4d4b/%E5%85%A9%E5%B2%B8-%E4%B8%AD%E5%9C%8B%E4%B8%8B%E5%91%A8%E4%B8%89%E8%B5%B7%E8%AA%BF%E4%BD%8E%E5%86%8D%E7%94%9F%E9%8A%85%E9%8B%81%E5%8E%9F%E6%96%99%E7%AD%89%E5%95%86%E5%93%81%E9%80%B2%E5%8F%A3%E9%97%9C%E7%A8%85-%E6%8E%A8%E9%80%B2%E7%B6%A0%E8%89%B2%E4%BD%8E%E7%A2%B3%E7%99%BC%E5%B1%95</t>
+  </si>
+  <si>
+    <t>news.tvb.com國務院關稅稅則委員會公布，下周三起調低部分商品，包括再生銅鋁原料的進口關稅。委員會指在國務院批准下，下月1日對935項商品實施低於最惠國稅率的進口暫定稅率，...6 小時前</t>
+  </si>
+  <si>
+    <t>無綫新聞 TVB News
+繁
+简
+搜尋
+無綫新聞 TVB News
+無綫新聞
+兩岸
+中國下周三起調低再生銅鋁原料等商品進口關稅 推進綠色低碳發展
+中國下周三起調低再生銅鋁原料等商品進口關稅 推進綠色低碳發展
+發佈日期: 2024-12-28 11:14
+兩岸
+無綫新聞 TVB News
+粵
+無綫新聞 TVB News
+無綫新聞 TVB News已複製連結
+國務院關稅稅則委員會公布，下周三起調低部分商品，包括再生銅鋁原料的進口關稅。
+委員會指，在國務院批准下，下月1日對935項商品實施低於最惠國稅率的進口暫定稅率，包括調低乙烷、部分再生銅鋁原料的進口關稅，以推進綠色低碳發展。
+中方為了支持以科技創新引領新質生產力發展，將會降低消防車、搶修車等特殊用途車的自動變速箱等進口關稅。
+中方亦提高部分商品關稅，指根據國內產業發展和供應情況，在中國加入世貿承諾範圍內，提高糖漿及含糖預混粉、電池隔離膜等商品的進口關稅。
+關稅
+進口
+低碳
+新質生產力
+中國
+世貿
+無綫新聞 TVB News
+無綫新聞 TVB News
+無綫新聞 TVB News
+隨時隨地觀看新聞，立即下載
+Apple App Store下載無綫新聞TVB News app
+Google Play下載無綫新聞TVB News app
+Huawei App Gallery下載無綫新聞TVB News app
+Samsung Galaxy Store下載無綫新聞TVB News app
+條款及細則
+個人資料收集聲明
+私隱聲明概覽 (歐盟)
+完整私隱聲明 (歐盟)
+Cookies 政策
+準則及守則
+FAQ 常見問題
+關於我們
+聯絡我們
+Copyright 2024 Television Broadcasts Limited
+無綫新聞 Facebook Fanpage
+無綫新聞 YouTube Channel</t>
+  </si>
+  <si>
+    <t>2024-12-28 17:15:16</t>
+  </si>
+  <si>
+    <t>中國國務院關稅稅則委員會宣布，將於2025年1月1日起，調低部分商品的進口關稅，其中包括再生銅鋁原料等，以促進綠色低碳發展。此舉旨在支持科技創新，並提升新質生產力。同時，中國也提高了部分商品，例如糖漿及含糖預混粉、電池隔離膜等的進口關稅，以保護國內產業發展。  此次調整涵蓋935項商品，部分商品的進口暫定稅率將低於最惠國稅率。</t>
+  </si>
+  <si>
+    <t>中國下周三起調低部分商品，包括再生銅鋁原料的進口關稅，以推進綠色低碳發展。國務院關稅稅則委員會指，下月1日對935項商品實施低於最惠國稅率的進口暫定稅率，包括調低乙烷、部分再生銅鋁原料的進口關稅。中方為支持科技創新，降低消防車、搶修車等特殊用途車的自動變速箱等進口關稅；同時，提高糖漿及含糖預混粉、電池隔離膜等商品的進口關稅。</t>
+  </si>
+  <si>
+    <t>中國、進口關稅、再生銅鋁原料、綠色低碳發展、科技創新、新質生產力、最惠國稅率、乙烷、糖漿、含糖預混粉、電池隔離膜、國務院關稅稅則委員會、世貿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">促進綠色低碳發展，符合全球環保趨勢。
+支持科技創新，提升國家競爭力。
+精準調整關稅，兼顧產業保護和國際貿易。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提高部分商品關稅可能引發國際貿易摩擦。
+關稅調整的實際效果有待觀察。
+部分產業可能面臨更大的競爭壓力。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吸引更多再生資源回收利用投資。
+推動相關產業升級轉型。
+提升國際貿易合作。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">國際市場環境變化可能影響政策效果。
+國內產業調整可能導致短期陣痛。
+其他國家採取貿易保護措施，造成反制。
+</t>
+  </si>
+  <si>
+    <t>寧德时代擬赴港上市 加速全球化布局</t>
+  </si>
+  <si>
+    <t>https://finance730.com.hk/2024/12/27/%E5%AF%A7%E5%BE%B7%E6%99%82%E4%BB%A3-%E9%A6%99%E6%B8%AF-%E4%B8%8A%E5%B8%82-%E6%96%B0%E8%82%A1-ipo/</t>
+  </si>
+  <si>
+    <t>Finance730全球最大動力電池製造商寧德時代（CATL）計劃在香港聯交所掛牌上市。寧德時代近日發佈公告，擬發行境外上市外資股(H股)並申請在香港聯交所主板掛牌上市，旨在推進全球化...23 小時前</t>
+  </si>
+  <si>
+    <t>.寧德时代擬赴港上市 加速全球化布局
+作者：Finance730 編輯
+全球最大動力電池製造商寧德時代（CATL）計劃在香港聯交所掛牌上市。寧德時代近日發佈公告，擬發行境外上市外資股(H股)並申請在香港聯交所主板掛牌上市，旨在推進全球化戰略佈局，打造國際化資本運作平台，提升綜合競爭力。
+寧德時代為中國內地龍頭電池生產商，主要生產電動車電池，現時已是全球最大的電動車電池供應商，客戶包括特斯拉等知名車廠。
+根據公告，寧德時代於12月26日召開董事會及監事會會議,審議通過相關議案。公司計劃在股東大會決議生效後18個月內，選擇適當時機完成發行上市。募集資金將用於拓展國際業務、推進海外項目建設及補充境外營運資金等，具體發行細節尚未確定。
+寧德時代新技術新產品頻出 加速海外佈局
+值得注意的是，寧德時代近期在新技術、新產品及海外佈局方面動作頻頻。在換電領域,公司宣佈推出標準化換電電池,並計劃到2025年建成1000座換電站寧德時代董事長曾毓群曾經展望，到 2030年市場充電結構將發生重大改變，換電、家用充電樁與公共充電樁三分天下，各占市場約三分之一。此外，寧德時代在海外已有8個建成或在建工廠。
+數據顯示，寧德時代今年前三季度營收同比下降12.1%，淨利潤增長15.6%，赴港上市有助公司拓寬融資渠道，支持全球化戰略。寧德時代將於1月17日召開臨時股東大會，就香港上市事宜進行表決。
+更多香港新股相關報導
+GOGOX上市30日 跌足26日 2基石投資者慘輸3.8億
+一品雞煲赴美上市 揭火鍋店投資回本期及香港10大龍頭市佔
+專欄｜投資港股所為何事？ 畀錢上市公司再派息畀自己
+生意詳解｜草姬獲批上市 郭晉安姐弟創立 年灑3000萬賣廣告
+新股故事｜衛龍如何洗去辣條「屍油美點」污名 成就國民零食
+更多最新最熱最有用財經金融地產資訊 請即登記成為Finance730會員
+歡迎讀者投稿，稿件請投至finance730hk@gmail.com
+▼追蹤Finance730 動向 官方網頁</t>
+  </si>
+  <si>
+    <t>2024-12-28 17:15:38</t>
+  </si>
+  <si>
+    <t>全球最大動力電池製造商寧德時代計劃在香港聯交所掛牌上市，以推進全球化戰略佈局，提升綜合競爭力。此舉旨在拓展國際業務、推進海外項目建設及補充境外營運資金。  寧德時代近期在新技術、新產品及海外佈局方面動作頻頻，例如推出標準化換電電池，並計劃到2025年建成1000座換電站，以及在海外已有8個建成或在建工廠。儘管今年前三季度營收同比下降12.1%，淨利潤卻增長15.6%，赴港上市將有助於公司拓寬融資渠道，支持全球化戰略。</t>
+  </si>
+  <si>
+    <t>寧德時代計劃在香港聯交所掛牌上市，推進全球化戰略佈局，提升綜合競爭力。募集資金將用於拓展國際業務、推進海外項目建設及補充境外營運資金。公司計劃到2025年建成1000座換電站。寧德時代在海外已有8個建成或在建工廠。今年前三季度營收同比下降12.1%，淨利潤增長15.6%。赴港上市有助公司拓寬融資渠道，支持全球化戰略。</t>
+  </si>
+  <si>
+    <t>寧德時代,香港上市,H股,動力電池,電動車電池,全球化,海外佈局,換電站,融資,營收,淨利潤,國際化,資本運作,特斯拉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">寧德時代是全球最大的動力電池製造商，擁有雄厚的技術實力和市場份額。
+香港上市可以拓寬融資渠道，為全球化戰略提供資金支持。
+積極佈局換電領域和海外市場，增強公司競爭力。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今年前三季度營收下降，存在一定的經營風險。
+全球電動車市場競爭激烈，存在市場份額被蠶食的風險。
+海外市場拓展存在不確定性。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">香港資本市場的資金充裕，可以獲得更多投資。
+提升國際品牌形象，吸引更多國際客戶。
+通過海外項目建設，擴大市場份額。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">國際市場的政策風險和地緣政治風險。
+競爭對手的激烈競爭，例如LG新能源、Panasonic等。
+原材料價格波動和供應鏈風險。
+</t>
+  </si>
+  <si>
+    <t>科技潛力牛股出爐！人形機器人、AI手機、智能駕駛、固態電池，誰是王者？</t>
+  </si>
+  <si>
+    <t>https://hao.cnyes.com/post/128958</t>
+  </si>
+  <si>
+    <t>鉅亨號證券時報·資料寶持續跟蹤和深入分析券商研報後發現，人形機器人、AI手機、無人駕駛、固態電池四個前沿科技題材，憑藉其創新性與巨大的市場潛力，獲得機構的青睞。2 小時前</t>
+  </si>
+  <si>
+    <t>科技潛力牛股出爐！人形機器人、AI手機、智能駕駛、固態電池，誰是王者？
+2024/12/29
+•
+證券時報·資料寶持續跟蹤和深入分析券商研報後發現，人形機器人、AI手機、無人駕駛、固態電池四個前沿科技題材，憑藉其創新性與巨大的市場潛力，獲得機構的青睞。
+機構預計這些類股在2025年迎來商業化處理程序的關鍵節點或實現量產突破，這無疑將深刻影響相關上市公司的業績表現。鑑於此，本文將對A股公司中涉及上述類股的個股進行全面梳理，重點聚焦2024~2025年業績預期。
+2025年人形機器人出貨量將顯著增加
+人形機器人是指形狀及尺寸與人體類似，可以模仿人類運動、表情、互動及動作的機器人。憑藉靈活性、高度適應性和人機協作能力等優勢，人形機器人在工業製造、醫療康復、教育科研、家庭服務等眾多領域展現出了巨大的應用潛力，成為了當今科技領域備受矚目的研究熱點和發展方向，也吸引了眾多企業紛紛入局，搶佔市場先機。
+近日，Figure機器人CEO在X平台宣佈，Figur02機器人正式交付客戶並創收；智元機器人官方微信視訊號發佈更新視訊，宣佈其多款人形機器人已實現客戶工廠部署。同時，Agility、宇樹、樂聚等國內外主要整機廠商均宣佈了其產品出貨情況。
+據中信證券統計，2024年全球人形機器人出貨數量將達到2000台以上，正式迎來商業化元年。該機構表示，隨著全球及中國主流科技及製造巨頭紛紛佈局人形機器人，該類股增長趨勢已十分明確，2025年出貨量將顯著增加，行業有望迎來爆發奇點。
+據《人形機器人產業研究報告》，2024年中國人形機器人市場規模將達到27.6億元；到2029年，該市場規模有望擴大至750億元；到2035年這一市場規模有望進一步提升至3000億元，2025~2035年復合增速達53.15%。
+據資料寶統計，2024年前三季度淨利潤實現增長的人形機器概念股中，截至12月27日（下同），機構評級家數超10家且一致預測2024~2025年淨利潤復合增速超20%的個股有9隻。
+根據上述公司2024~2025年淨利潤復合增速及最新的滾動市盈率粗略估算，拓普集團、德昌股份、東華測試、拓邦股份的PEG(市盈率相對盈利增長比率)小於1。
+拓普集團獲41家機構關注，一致預測2024~2025年淨利潤復合增速為32.71%，最新滾動市盈率為30.86倍，公司擬50億元投資機器人電驅系統基地，電驅系統為人形機器人主要部件；研發的機器人核心部件直線執行器和旋轉執行器已經多次向客戶送樣，獲客戶好評。
+AI手機滲透率有望快速提升
+AI手機產業鏈上游為AI晶片製造商，通過提升CPU、GPU和NPU的性能和能效，滿足AI計算需求；中游為軟體開發商，將AI大模型嵌入終端裝置，最佳化使用者體驗；下游為手機製造商。
+目前，從AI大模型、晶片組、作業系統、使用者介面到整機裝置，手機各廠商積極推進AI手機佈局。蘋果、Google和三星等全球主要廠商，以及榮耀、OPPO、小米和vivo等中國領先廠商，都在將生成式AI功能整合到裝置中。
+萬聯證券指出，隨著硬體基礎夯實、端側大模型及應用相繼落地，AI手機發展東風已至，有望快速滲透手機市場。
+據賽迪顧問預測，2024年AI手機的出貨量將達1.5億部，佔全球智慧型手機總出貨量13%；到2027年，全球AI手機銷售量有望超過5.9億部，佔全球智慧型手機總出貨量的比重超過50%。
+據資料寶統計，2024年前三季度淨利潤實現增長的AI手機概念股中，機構評級家數超5家且一致預測2024~2025年淨利潤復合增速超8%的個股有9隻。
+根據上述公司2024~2025年淨利潤復合增速及最新的滾動市盈率粗略估算，水晶光電、中石科技、匯頂科技、安利股份的PEG(市盈率相對盈利增長比率)小於1。
+水晶光電獲24家機構關注，一致預測2024~2025年淨利潤復合增速為45.95%，最新滾動市盈率為30.63倍，公司在AI手機領域的佈局主要體現在光學影像和薄膜光學面板的研發與生產上，為三星S24和OPPO find X7等機型供應光學零元件產品。
+智能駕駛從1向10大步邁進
+無人駕駛，基於電腦與AI技術，能在無人干預下實現安全、高效駕駛，當前已在物流、出行等多領域試點，成效初顯，市場前景被廣泛看好。
+中信證券近日發佈的研報指出，智能駕駛正快速演進，從1向10大步邁進，越來越多的消費者躋身於“智能駕駛”的時代，將為無人駕駛商業化發展奠定更堅實基礎。
+據行業機構測算，2023年中國無人駕駛行業市場規模為3301億元，預計2024年將達到3832億元，增速達15.8%，未來幾年內將持續擴大。
+據資料寶統計，2024年前三季度淨利潤實現增長的無人駕駛概念股中，機構評級家數超10家且一致預測2024~2025年淨利潤復合增速超40%的個股有9隻。
+根據上述公司2024~2025年淨利潤復合增速及最新的滾動市盈率粗略估算，宇通客車、長城汽車、柳工、中際旭創等7股PEG(市盈率相對盈利增長比率)小於1。
+宇通客車獲23家機構關注，一致預測2024~2025年淨利潤復合增速為49.09%，最新滾動市盈率為17.56倍，公司與文遠知行持續深化合作，共同推動無人駕駛技術的商業化處理程序，L3、L4級無人駕駛公車已在多個城市落地營運。
+固態電池產業化提速
+固態電池使用固體電解質替代易燃易爆的電解液，實現電池本征安全，同時可以應用更高比容量的正負極材料，打開鋰電池能量密度天花板。
+近日，新宙邦、道氏技術等公司在投資者互動平台上回應佈局固態電池情況。
+新宙邦回覆投資者稱，目前已有聚合物體系、氧化物體系和硫化物體系的固態電解質產品，並正積極與下遊客戶合作推進產業化應用，也在按客戶的未來需求對產能進行積極佈局。
+西部證券表示，2024年以來多家電池廠和車企公佈固態電池相關進展，其中半固態電池已率先實現量產上車，產業化處理程序有望加快。
+據中商產業研究院預測，2024年中國固態電池市場空間將達到17億元，2030年將增至200億元，2025~2030年複合增長率達50.81%。
+據資料寶統計，2024年前三季度淨利潤實現增長的固態電池概念股中，機構評級家數超10家且一致預測2024~2025年淨利潤復合增速超15%的個股有9隻。
+根據上述公司2024~2025年淨利潤復合增速及最新的滾動市盈率粗略估算，欣旺達、長城汽車、蔚藍鋰芯等5股PEG(市盈率相對盈利增長比率)小於1。
+欣旺達獲16家機構關注，一致預測2024~2025年淨利潤復合增速為41.24%，最新滾動市盈率為28.44倍，公司從2015年就已經開始研發佈局固態電池，規劃了第一代400Wh/kg和第二代500Wh/kg全固態電池。其中第二代實驗室樣品已達到500Wh/kg能量密度目標。
+9股獲機構大額買入
+據資料寶統計，上述四大熱門科技類股所涉及的潛力股中，12月有9股獲機構資金大額買入，淨買入金額均超1500萬元。
+人形機器人概念股拓邦股份12月獲機構資金淨買入金額達2.29億元，居首，其在互動平台上表示，公司在人形機器人領域有著明確的技術積累和戰略規劃，具備電機本體+減速+驅動控制一體化的解決方案能力，其中空心杯電機技術水平處於國內第一梯隊。公司獲16家機構一致預測2024~2025年淨利潤復合增速達33.15%，最新滾動市盈率為25倍。
+華創證券表示，拓邦股份在智能控制領域行業領先，家電、工具庫存回歸正常水平，新能源業務快速發展，公司海外產能逐步爬升，維持公司“推薦”評級。
+(資料寶)
+想說些甚麼?
+官方號
+好康站
+客服
+號守則
+鉅亨網
+© Copyright 2000-2022 Anue鉅亨網 All rights reserved.</t>
+  </si>
+  <si>
+    <t>2024-12-29 12:26:58</t>
+  </si>
+  <si>
+    <t>本文分析了人形機器人、AI手機、智能駕駛和固態電池四大科技題材的投資潛力。文章指出，2025年這些領域將迎來商業化或量產突破，機構看好其市場潛力。文章根據2024年前三季度淨利潤增長情況，以及機構評級和預測的2024-2025年淨利潤復合增速，篩選出部分個股，並分析其PEG比率（市盈率相對盈利增長比率），其中部分個股的PEG比率小於1，被認為具備投資價值。文章還提到了部分公司在相關領域的佈局和進展，例如拓普集團在人形機器人電驅系統方面的投資，以及欣旺達在固態電池研發方面的成就。最後，文章列舉了12月份機構大額買入的九隻股票。</t>
+  </si>
+  <si>
+    <t>機構預計人形機器人、AI手機、無人駕駛、固態電池等前沿科技題材在2025年迎來商業化或量產突破。2024年全球人形機器人出貨量將達到2000台以上，2025年將顯著增加。AI手機2024年出貨量將達1.5億部，2027年有望超過5.9億部。中國無人駕駛行業市場規模2023年為3301億元，預計2024年將達到3832億元。2024年中國固態電池市場空間將達到17億元，2030年將增至200億元。部分個股PEG比率小於1，例如拓普集團、欣旺達等。12月有9股獲機構資金大額買入，拓邦股份淨買入金額達2.29億元。</t>
+  </si>
+  <si>
+    <t>人形機器人、AI手機、智能駕駛、固態電池、科技股、投資潛力、商業化、量產、淨利潤、PEG比率、拓普集團、欣旺達、拓邦股份、機構投資、市場規模</t>
+  </si>
+  <si>
+    <t xml:space="preserve">選取的科技題材均為目前市場熱點，具有較高的關注度和發展潛力。
+數據來源可靠，基於券商研報和行業機構預測，分析相對客觀。
+對個股的分析相對深入，包含了業績預期、PEG比率以及機構評級等多方面信息。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文章信息量較大，結構略顯凌亂，閱讀體驗有待提升。
+僅基於公開信息進行分析，缺乏對公司內部情況的深入了解。
+對未來市場預測的準確性存在不確定性，投資風險依然存在。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以根據不同讀者的需求，對文章進行更精細的分類和整理，例如針對不同科技題材撰寫獨立文章。
+可以進一步深入研究相關公司，例如實地考察、訪談等，以獲得更全面和深入的信息。
+可以結合其他分析方法，例如技術分析、基本面分析等，提高預測的準確性。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">市場環境變化莫測，科技發展迅速，文中提到的預測可能很快過時。
+競爭對手的出現和技術突破，可能影響相關公司的業績表現。
+政策風險和監管風險，也可能對相關產業的發展產生影響。
+</t>
+  </si>
+  <si>
+    <t>寧德時代否認減產磷酸鐵鋰　強調「新能源市場發展良好」</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20241229/2882489.htm</t>
+  </si>
+  <si>
+    <t>ETtoday新聞雲中國大陸電池製造龍頭寧德時代傳出將於2025年1月減產磷酸鐵鋰。對此，寧德時代官方27日發文否認傳聞，並強調新能源市場發展良好，需求旺盛。 (寧德時代,新能源車,磷酸鐵...3 小時前</t>
+  </si>
+  <si>
+    <t>.寧德時代否認減產磷酸鐵鋰　強調「新能源市場發展良好」
+▲寧德時代。（圖／路透社）
+記者蔡紹堅／綜合報導
+中國大陸電池製造龍頭寧德時代傳出將於2025年1月減產磷酸鐵鋰。對此，寧德時代官方27日發文否認傳聞，並強調新能源市場發展良好，需求旺盛。
+寧德時代表示，減產的相關傳聞不屬實，目前新能源市場發展良好，需求較為旺盛，公司一直與供應商良好互動合作，共同推進行業發展。
+寧德時代還說，公司致力於攜手供應商夥伴共同推進技術進步與創新，共享行業發展紅利。
+根據中國汽車動力電池產業創新聯盟的數據，11月中國大陸動力和其他電池合計產量為117.8GWh，年增33.3%，其中，磷酸鐵鋰電池佔比達79.3%。
+海通國際研報認為，未來隨著鋰電產業鏈原材料成本不斷下降，政策扶持疊加終端需求不斷提升有望推動新能源車銷量持續增長，鋰電產業鏈需求將隨即逐步提升。
+分享給朋友：
+追蹤我們：
+※本文版權所有，非經授權，不得轉載。[ ETtoday著作權聲明 ]※</t>
+  </si>
+  <si>
+    <t>2024-12-29 12:27:18</t>
+  </si>
+  <si>
+    <t>針對近期網路流傳寧德時代將於2025年1月減產磷酸鐵鋰電池的傳聞，寧德時代官方正式否認，並強調目前新能源市場發展良好，需求旺盛，公司與供應商合作良好，持續推進技術進步與創新。  中國大陸11月動力電池產量年增33.3%，磷酸鐵鋰電池佔比高達79.3%，顯示市場需求強勁。  分析機構海通國際也預測，隨著原材料成本下降及政策扶持，新能源車銷量與鋰電產業鏈需求將持續增長。</t>
+  </si>
+  <si>
+    <t>寧德時代否認2025年1月減產磷酸鐵鋰電池的傳聞，強調「新能源市場發展良好，需求旺盛」。公司表示與供應商良好互動合作，共同推進行業發展，致力於攜手供應商夥伴共同推進技術進步與創新，共享行業發展紅利。11月中國大陸動力電池產量為117.8GWh，年增33.3%，磷酸鐵鋰電池佔比達79.3%。海通國際研報認為，未來鋰電產業鏈需求將隨新能源車銷量增長而提升。</t>
+  </si>
+  <si>
+    <t>寧德時代，磷酸鐵鋰電池，減產，新能源市場，電動車，電池產量，市場需求，供應鏈，海通國際，中國大陸，產業發展</t>
+  </si>
+  <si>
+    <t xml:space="preserve">寧德時代為中國大陸電池製造龍頭，擁有雄厚的技術實力與市場份額。
+否認減產傳聞，有助於穩定市場信心，避免股價下跌。
+中國新能源市場持續發展，為寧德時代提供廣闊的市場空間。
+與供應商的良好合作關係，確保生產穩定和成本控制。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">減產傳聞的出現，顯示市場對寧德時代未來發展仍存在一定疑慮。
+原材料價格波動和國際競爭加劇，可能影響寧德時代的盈利能力。
+技術創新速度需持續保持，以應對市場競爭。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">持續研發更高效、更安全的電池技術，搶佔市場份額。
+拓展海外市場，提升國際影響力。
+與車企建立更緊密的合作關係，共同開發新能源汽車。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">國際競爭加劇，其他電池製造商的崛起。
+政府政策的變化，可能影響新能源汽車產業的發展。
+原材料價格上漲和供應鏈不穩定。
+</t>
+  </si>
+  <si>
+    <t>「全球化已死」關鍵在中國！ 張忠謀悟出新問題謝金河曝下一個殺戮慘業</t>
+  </si>
+  <si>
+    <t>http://www.msn.com/zh-tw/money/topstories/%E5%85%A8%E7%90%83%E5%8C%96%E5%B7%B2%E6%AD%BB-%E9%97%9C%E9%8D%B5%E5%9C%A8%E4%B8%AD%E5%9C%8B-%E5%BC%B5%E5%BF%A0%E8%AC%80%E6%82%9F%E5%87%BA%E6%96%B0%E5%95%8F%E9%A1%8C-%E8%AC%9D%E9%87%91%E6%B2%B3%E6%9B%9D%E4%B8%8B%E4%B8%80%E5%80%8B%E6%AE%BA%E6%88%AE%E6%85%98%E6%A5%AD/ar-AA1wrEOt?ocid=finance-verthp-feeds&amp;apiversion=v2&amp;noservercache=1&amp;domshim=1&amp;renderwebcomponents=1&amp;wcseo=1&amp;batchservertelemetry=1&amp;noservertelemetry=1</t>
+  </si>
+  <si>
+    <t>MSN台積電創辦人張忠謀日前在台積電運動會上兩度表示「全球化已死」，全球化已死議題再成焦點。財訊傳媒董事長謝金河指出，全球化走下去挑戰將更嚴峻，關鍵在於中國的變數，...13 小時前</t>
+  </si>
+  <si>
+    <t>2024-12-29 12:27:44</t>
+  </si>
+  <si>
+    <t>中美貿易戰升溫 馬來西亞面臨「洗產地」風險 | 兩岸 | 20241229 | 即時新聞 | 翻報</t>
+  </si>
+  <si>
+    <t>https://turnnewsapp.com/livenews/chinav3/20241229001529-260409</t>
+  </si>
+  <si>
+    <t>翻爆據美國之音報導，在全球貿易格局日益複雜化的背景下，馬來西亞正面臨被中國企業利用作為「洗產地」的風險。隨著中美貿易戰和全球出口限制的加劇，如何確保本國貿易政策不...2 小時前</t>
+  </si>
+  <si>
+    <t>.中美貿易戰升溫 馬來西亞面臨「洗產地」風險
+據美國之音報導，在全球貿易格局日益複雜化的背景下，馬來西亞正面臨被中國企業利用作為「洗產地」的風險。隨著中美貿易戰和全球出口限制的加劇，如何確保本國貿易政策不會被濫用，成為馬來西亞亟需解決的問題。
+「洗產地」（country of origin laundering或origin washing）是一種透過改變產品的原產地資訊以規避貿易限制、關稅或法律規定的行為。其中洗產地常見的形式包括轉運洗產地，商品從原產國出口到中間國，然後貼上中間國的產地標籤，再出口到目標國，從而規避關稅、繞過貿易壁壘以提升市場競爭力。
+2024年5月14日，拜登政府宣布從9月27日開始對中國電動車徵收4倍關稅，從25％提高到100％；對中國太陽能電池的進口稅翻一番，從25％提高到50％；部分中國進口鋼鐵和鋁徵收的關稅增加三倍以上，從7.5％提高到25％。面對美國的限制措施，中國政府隨即宣布限制向美國出口無人機製造所需的關鍵組件，並對美國晶片製造商輝達展開反壟斷調查，進一步加劇了兩國在高科技領域的競爭。
+即將在2025年1月20日走馬上任的美國當選總統川普更是明確表示，一上任就會對所有的中國產品稅上加稅。
+報導稱，正是在這種情況下，身為中立國的馬來西亞同時受到美中兩國的青睞，吸引了來自中美兩大貿易夥伴的越來越多的投資。尤其是中國公司，近來不斷與馬來西亞官員接觸。可是馬來西亞投資、貿易與工業部副部長劉鎮東卻多次提醒中國企業不要將馬來西亞當作「洗產地」以規避美國關稅。
+然而劉鎮東的言論很快便遭到其他政黨領袖批評。馬華公會副總會長拿督陳德欽表示，劉的言論不僅傷害外資情緒，也是在貶低和侮辱本國的法律制度。
+儘管如此，有專家認為，單批評中國企業並不公平，因為「洗白原產地」現象並非新事物，目的從來都是規避高額關稅、出口稅、海關，以及逃避海關禁令等。
+掌管雪蘭莪投資、貿易及公共交通事務的檳州行政議員黃漢偉表示，他相信中美貿易戰仍將持續。美國公司可能因為保護主義而逐漸撤出中國，轉而選擇其他友好的亞洲國家落腳，而川普重返白宮只會加劇這一趨勢，「不論川普的影響是正面的還是負面的，對馬來西亞而言，都會是一個好機會。」
+黃漢偉指出，中國是馬來西亞最大的貿易夥伴，兩國關係密切，但美國也是馬來西亞的第二大出口目的地，因此需要與美中兩國都保持良好關係。
+黃漢偉強調，擁有「東方矽谷」之稱的檳城就是永續投資的理想地點。檳城早在70年代就開始工業化，吸引了來自不同國家的投資者設廠，其中最多的是美國公司。
+他舉例說，美國在全球半導體產業中處於領導地位，上游推動研發及製定規格，</t>
+  </si>
+  <si>
+    <t>2024-12-29 15:16:08</t>
+  </si>
+  <si>
+    <t>中美貿易戰升溫，馬來西亞面臨被中國企業利用作為「洗產地」的風險。中國企業藉由將產品經馬來西亞轉運，貼上馬來西亞產地標籤，規避美國對中國產品的高額關稅。馬來西亞官員多次警告中國企業勿濫用此行為，但此舉引發部分人士批評，認為傷害外資情緒並貶低馬來西亞法律制度。專家則認為「洗產地」現象並非新鮮事，目的在規避貿易限制。儘管如此，馬來西亞也因中美貿易戰而成為潛在的投資受益者，尤其在美國企業可能撤出中國的背景下。</t>
+  </si>
+  <si>
+    <t>馬來西亞面臨中國企業利用其「洗產地」的風險，以規避美國對中國產品的高額關稅。「洗產地」是指改變產品原產地資訊以規避貿易限制的行為。拜登政府已提高對中國電動車、太陽能電池和部分鋼鐵及鋁的關稅，川普當選總統也將可能加劇此趨勢。馬來西亞投資、貿易與工業部副部長劉鎮東警告中國企業勿將馬來西亞當作「洗產地」，但此言論引發批評。專家認為「洗產地」現象並非新事物，馬來西亞則需在中美兩國間取得平衡。</t>
+  </si>
+  <si>
+    <t>中美貿易戰、洗產地、馬來西亞、美國關稅、中國企業、貿易限制、規避關稅、原產地標籤、投資、貿易、經濟制裁、拜登政府、川普、電動車、太陽能電池、鋼鐵、鋁、地緣政治</t>
+  </si>
+  <si>
+    <t xml:space="preserve">馬來西亞地緣位置優越，可作為中美貿易的橋樑。
+馬來西亞擁有相對穩定的政治和經濟環境，吸引外資。
+美國企業可能因貿易戰撤出中國，為馬來西亞帶來投資機會。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">馬來西亞缺乏有效的機制來防止「洗產地」行為。
+對「洗產地」行為的警告可能損害馬來西亞的國際形象和投資吸引力。
+在中美之間保持平衡的策略具有挑戰性。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加強與美國的貿易關係，成為美國企業在亞洲的替代生產基地。
+提升馬來西亞產品的附加值，減少對「洗產地」的依賴。
+制定更完善的貿易政策和監管措施，防止「洗產地」行為。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中美貿易戰持續升溫，可能進一步損害馬來西亞的經濟利益。
+「洗產地」行為可能導致馬來西亞受到美國的貿易制裁。
+馬來西亞可能失去中美兩國的信任，影響其國際地位。
+</t>
+  </si>
 </sst>
 </file>
 
@@ -20145,7 +20961,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S420"/>
+  <dimension ref="A1:S431"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -44931,6 +45747,655 @@
         <v>25</v>
       </c>
     </row>
+    <row r="421">
+      <c r="A421" t="s" s="0">
+        <v>4260</v>
+      </c>
+      <c r="B421" t="s" s="0">
+        <v>4261</v>
+      </c>
+      <c r="C421" t="s" s="0">
+        <v>4262</v>
+      </c>
+      <c r="D421" t="s" s="0">
+        <v>4263</v>
+      </c>
+      <c r="E421" t="s" s="0">
+        <v>4264</v>
+      </c>
+      <c r="F421" t="s" s="0">
+        <v>799</v>
+      </c>
+      <c r="G421" t="s" s="0">
+        <v>4265</v>
+      </c>
+      <c r="H421" t="s" s="0">
+        <v>4266</v>
+      </c>
+      <c r="I421" t="s" s="0">
+        <v>4267</v>
+      </c>
+      <c r="J421" t="s" s="0">
+        <v>4268</v>
+      </c>
+      <c r="K421" t="s" s="0">
+        <v>4269</v>
+      </c>
+      <c r="L421" t="s" s="0">
+        <v>4270</v>
+      </c>
+      <c r="M421" t="s" s="0">
+        <v>4271</v>
+      </c>
+      <c r="N421" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="O421" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="P421" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="Q421" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="R421" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="S421" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s" s="0">
+        <v>4272</v>
+      </c>
+      <c r="B422" t="s" s="0">
+        <v>4273</v>
+      </c>
+      <c r="C422" t="s" s="0">
+        <v>4274</v>
+      </c>
+      <c r="D422" t="s" s="0">
+        <v>4275</v>
+      </c>
+      <c r="E422" t="s" s="0">
+        <v>4276</v>
+      </c>
+      <c r="F422" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="G422" t="s" s="0">
+        <v>4277</v>
+      </c>
+      <c r="H422" t="s" s="0">
+        <v>4278</v>
+      </c>
+      <c r="I422" t="s" s="0">
+        <v>4279</v>
+      </c>
+      <c r="J422" t="s" s="0">
+        <v>4280</v>
+      </c>
+      <c r="K422" t="s" s="0">
+        <v>4281</v>
+      </c>
+      <c r="L422" t="s" s="0">
+        <v>4282</v>
+      </c>
+      <c r="M422" t="s" s="0">
+        <v>4283</v>
+      </c>
+      <c r="N422" t="s" s="0">
+        <v>1302</v>
+      </c>
+      <c r="O422" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="P422" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="Q422" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="R422" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="S422" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s" s="0">
+        <v>4284</v>
+      </c>
+      <c r="B423" t="s" s="0">
+        <v>4285</v>
+      </c>
+      <c r="C423" t="s" s="0">
+        <v>4286</v>
+      </c>
+      <c r="D423" t="s" s="0">
+        <v>4287</v>
+      </c>
+      <c r="E423" t="s" s="0">
+        <v>4288</v>
+      </c>
+      <c r="F423" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="G423" t="s" s="0">
+        <v>4289</v>
+      </c>
+      <c r="H423" t="s" s="0">
+        <v>4290</v>
+      </c>
+      <c r="I423" t="s" s="0">
+        <v>4291</v>
+      </c>
+      <c r="J423" t="s" s="0">
+        <v>4292</v>
+      </c>
+      <c r="K423" t="s" s="0">
+        <v>4293</v>
+      </c>
+      <c r="L423" t="s" s="0">
+        <v>4294</v>
+      </c>
+      <c r="M423" t="s" s="0">
+        <v>4295</v>
+      </c>
+      <c r="N423" t="s" s="0">
+        <v>584</v>
+      </c>
+      <c r="O423" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="P423" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q423" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="R423" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="S423" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s" s="0">
+        <v>4296</v>
+      </c>
+      <c r="B424" t="s" s="0">
+        <v>4297</v>
+      </c>
+      <c r="C424" t="s" s="0">
+        <v>4298</v>
+      </c>
+      <c r="D424" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E424" t="s" s="0">
+        <v>4299</v>
+      </c>
+      <c r="F424" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G424" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H424" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="I424" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="J424" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K424" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="L424" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M424" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N424" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O424" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P424" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q424" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="R424" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="S424" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s" s="0">
+        <v>4300</v>
+      </c>
+      <c r="B425" t="s" s="0">
+        <v>4301</v>
+      </c>
+      <c r="C425" t="s" s="0">
+        <v>4302</v>
+      </c>
+      <c r="D425" t="s" s="0">
+        <v>4303</v>
+      </c>
+      <c r="E425" t="s" s="0">
+        <v>4304</v>
+      </c>
+      <c r="F425" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="G425" t="s" s="0">
+        <v>4305</v>
+      </c>
+      <c r="H425" t="s" s="0">
+        <v>4306</v>
+      </c>
+      <c r="I425" t="s" s="0">
+        <v>4307</v>
+      </c>
+      <c r="J425" t="s" s="0">
+        <v>4308</v>
+      </c>
+      <c r="K425" t="s" s="0">
+        <v>4309</v>
+      </c>
+      <c r="L425" t="s" s="0">
+        <v>4310</v>
+      </c>
+      <c r="M425" t="s" s="0">
+        <v>4311</v>
+      </c>
+      <c r="N425" t="s" s="0">
+        <v>4312</v>
+      </c>
+      <c r="O425" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="P425" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="Q425" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="R425" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="S425" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s" s="0">
+        <v>4313</v>
+      </c>
+      <c r="B426" t="s" s="0">
+        <v>4314</v>
+      </c>
+      <c r="C426" t="s" s="0">
+        <v>4315</v>
+      </c>
+      <c r="D426" t="s" s="0">
+        <v>4316</v>
+      </c>
+      <c r="E426" t="s" s="0">
+        <v>4317</v>
+      </c>
+      <c r="F426" t="s" s="0">
+        <v>716</v>
+      </c>
+      <c r="G426" t="s" s="0">
+        <v>4318</v>
+      </c>
+      <c r="H426" t="s" s="0">
+        <v>4319</v>
+      </c>
+      <c r="I426" t="s" s="0">
+        <v>4320</v>
+      </c>
+      <c r="J426" t="s" s="0">
+        <v>4321</v>
+      </c>
+      <c r="K426" t="s" s="0">
+        <v>4322</v>
+      </c>
+      <c r="L426" t="s" s="0">
+        <v>4323</v>
+      </c>
+      <c r="M426" t="s" s="0">
+        <v>4324</v>
+      </c>
+      <c r="N426" t="s" s="0">
+        <v>779</v>
+      </c>
+      <c r="O426" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="P426" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="Q426" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="R426" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="S426" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s" s="0">
+        <v>4325</v>
+      </c>
+      <c r="B427" t="s" s="0">
+        <v>4326</v>
+      </c>
+      <c r="C427" t="s" s="0">
+        <v>4327</v>
+      </c>
+      <c r="D427" t="s" s="0">
+        <v>4328</v>
+      </c>
+      <c r="E427" t="s" s="0">
+        <v>4329</v>
+      </c>
+      <c r="F427" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="G427" t="s" s="0">
+        <v>4330</v>
+      </c>
+      <c r="H427" t="s" s="0">
+        <v>4331</v>
+      </c>
+      <c r="I427" t="s" s="0">
+        <v>4332</v>
+      </c>
+      <c r="J427" t="s" s="0">
+        <v>4333</v>
+      </c>
+      <c r="K427" t="s" s="0">
+        <v>4334</v>
+      </c>
+      <c r="L427" t="s" s="0">
+        <v>4335</v>
+      </c>
+      <c r="M427" t="s" s="0">
+        <v>4336</v>
+      </c>
+      <c r="N427" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="O427" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="P427" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q427" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="R427" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="S427" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s" s="0">
+        <v>4337</v>
+      </c>
+      <c r="B428" t="s" s="0">
+        <v>4338</v>
+      </c>
+      <c r="C428" t="s" s="0">
+        <v>4339</v>
+      </c>
+      <c r="D428" t="s" s="0">
+        <v>4340</v>
+      </c>
+      <c r="E428" t="s" s="0">
+        <v>4341</v>
+      </c>
+      <c r="F428" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="G428" t="s" s="0">
+        <v>4342</v>
+      </c>
+      <c r="H428" t="s" s="0">
+        <v>4343</v>
+      </c>
+      <c r="I428" t="s" s="0">
+        <v>4344</v>
+      </c>
+      <c r="J428" t="s" s="0">
+        <v>4345</v>
+      </c>
+      <c r="K428" t="s" s="0">
+        <v>4346</v>
+      </c>
+      <c r="L428" t="s" s="0">
+        <v>4347</v>
+      </c>
+      <c r="M428" t="s" s="0">
+        <v>4348</v>
+      </c>
+      <c r="N428" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="O428" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="P428" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q428" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="R428" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="S428" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s" s="0">
+        <v>4349</v>
+      </c>
+      <c r="B429" t="s" s="0">
+        <v>4350</v>
+      </c>
+      <c r="C429" t="s" s="0">
+        <v>4351</v>
+      </c>
+      <c r="D429" t="s" s="0">
+        <v>4352</v>
+      </c>
+      <c r="E429" t="s" s="0">
+        <v>4353</v>
+      </c>
+      <c r="F429" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="G429" t="s" s="0">
+        <v>4354</v>
+      </c>
+      <c r="H429" t="s" s="0">
+        <v>4355</v>
+      </c>
+      <c r="I429" t="s" s="0">
+        <v>4356</v>
+      </c>
+      <c r="J429" t="s" s="0">
+        <v>4357</v>
+      </c>
+      <c r="K429" t="s" s="0">
+        <v>4358</v>
+      </c>
+      <c r="L429" t="s" s="0">
+        <v>4359</v>
+      </c>
+      <c r="M429" t="s" s="0">
+        <v>4360</v>
+      </c>
+      <c r="N429" t="s" s="0">
+        <v>568</v>
+      </c>
+      <c r="O429" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="P429" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q429" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="R429" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="S429" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s" s="0">
+        <v>4361</v>
+      </c>
+      <c r="B430" t="s" s="0">
+        <v>4362</v>
+      </c>
+      <c r="C430" t="s" s="0">
+        <v>4363</v>
+      </c>
+      <c r="D430" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E430" t="s" s="0">
+        <v>4364</v>
+      </c>
+      <c r="F430" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G430" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H430" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="I430" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="J430" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K430" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="L430" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="M430" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N430" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="O430" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="P430" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q430" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="R430" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="S430" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s" s="0">
+        <v>4365</v>
+      </c>
+      <c r="B431" t="s" s="0">
+        <v>4366</v>
+      </c>
+      <c r="C431" t="s" s="0">
+        <v>4367</v>
+      </c>
+      <c r="D431" t="s" s="0">
+        <v>4368</v>
+      </c>
+      <c r="E431" t="s" s="0">
+        <v>4369</v>
+      </c>
+      <c r="F431" t="s" s="0">
+        <v>948</v>
+      </c>
+      <c r="G431" t="s" s="0">
+        <v>4370</v>
+      </c>
+      <c r="H431" t="s" s="0">
+        <v>4371</v>
+      </c>
+      <c r="I431" t="s" s="0">
+        <v>4372</v>
+      </c>
+      <c r="J431" t="s" s="0">
+        <v>4373</v>
+      </c>
+      <c r="K431" t="s" s="0">
+        <v>4374</v>
+      </c>
+      <c r="L431" t="s" s="0">
+        <v>4375</v>
+      </c>
+      <c r="M431" t="s" s="0">
+        <v>4376</v>
+      </c>
+      <c r="N431" t="s" s="0">
+        <v>1302</v>
+      </c>
+      <c r="O431" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="P431" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="Q431" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="R431" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="S431" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
